--- a/2023.02 CSS3501_4 Text Analysis in Python/results/v1.xlsx
+++ b/2023.02 CSS3501_4 Text Analysis in Python/results/v1.xlsx
@@ -448,161 +448,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nsc</t>
+          <t>kazakhstan</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>kazakhstan</t>
+          <t>wa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>kazakh</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>anti-corruption</t>
+          <t>prison</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>drug</t>
+          <t>country</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>kazakh</t>
+          <t>also</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>wa</t>
+          <t>people</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>said</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>said</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>right</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>committee</t>
+          <t>criminal</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>council</t>
+          <t>international</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -622,77 +622,77 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hostage</t>
+          <t>human</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>national</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>political</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>one</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>photo</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>political</t>
+          <t>new</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>prisoner</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
